--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PhalepensisQilex_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PhalepensisQilex_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
       <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
         <v>652.3230600859816</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.71272927777778</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13.27323954473517</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-5.457895433320017</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>36.90299974009645</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25.82797744794065</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>22.30310271730713</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>20.8376962368149</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20.4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>19.17831425553733</v>
       </c>
     </row>
@@ -503,39 +511,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>233.4272498681132</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.540078472222222</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.33912378683968</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.5706183306987952</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40.12917317882751</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18.04156611485038</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>17.60961807840868</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>16.60144182610959</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15.92760186516299</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14.94347027303684</v>
       </c>
     </row>
@@ -551,39 +562,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>374.8983103942423</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.914219444444443</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12.07871683651173</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.3826731031276328</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40.13408319627001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>18.07804125238821</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17.91292331594336</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>16.90084033952057</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>16.2785350415573</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>15.35197689337711</v>
       </c>
     </row>
